--- a/study/auswertung/Vergleiche.xlsx
+++ b/study/auswertung/Vergleiche.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Arbeitnehmer </t>
-  </si>
-  <si>
-    <t>Arbeitgeber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>&gt;= 2000</t>
   </si>
@@ -211,7 +205,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -255,7 +249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$F$10:$F$21</c:f>
+              <c:f>Firmengrösse!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -310,7 +304,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -354,7 +348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$G$10:$G$21</c:f>
+              <c:f>Firmengrösse!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -490,7 +484,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -534,7 +528,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$D$10:$D$21</c:f>
+              <c:f>Firmengrösse!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -589,7 +583,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -633,7 +627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$E$10:$E$21</c:f>
+              <c:f>Firmengrösse!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -769,7 +763,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -813,7 +807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$H$10:$H$21</c:f>
+              <c:f>Firmengrösse!$H$3:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -868,7 +862,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -912,7 +906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$I$10:$I$21</c:f>
+              <c:f>Firmengrösse!$I$3:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1028,7 +1022,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1072,7 +1066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$J$10:$J$21</c:f>
+              <c:f>Firmengrösse!$J$3:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1127,7 +1121,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1171,7 +1165,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$K$10:$K$21</c:f>
+              <c:f>Firmengrösse!$K$3:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1302,7 +1296,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1346,7 +1340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$B$10:$B$21</c:f>
+              <c:f>Firmengrösse!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1401,7 +1395,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Firmengrösse!$A$10:$A$21</c:f>
+              <c:f>Firmengrösse!$A$3:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1445,7 +1439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Firmengrösse!$C$10:$C$21</c:f>
+              <c:f>Firmengrösse!$C$3:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1538,206 +1532,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arbeitnehmer </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>&gt;= 2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>&lt; 2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>&lt; 250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>&lt; 50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>&lt; 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arbeitgeber</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>&gt;= 2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>&lt; 2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>&lt; 250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>&lt; 50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>&lt; 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:overlap val="-25"/>
-        <c:axId val="109759488"/>
-        <c:axId val="109815680"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="109759488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109815680"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="109815680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109759488"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1761,13 +1568,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1791,13 +1598,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1821,13 +1628,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1851,13 +1658,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1872,36 +1679,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2195,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2208,98 +1985,280 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
+      <c r="K3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
         <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>5</v>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="3"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -2308,39 +2267,39 @@
         <v>6</v>
       </c>
       <c r="E10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4">
         <v>4</v>
@@ -2352,24 +2311,24 @@
         <v>1</v>
       </c>
       <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
       <c r="K11" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -2378,57 +2337,57 @@
         <v>5</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
         <v>3</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
         <v>3</v>
       </c>
       <c r="K12" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4">
         <v>3</v>
       </c>
       <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -2436,22 +2395,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -2460,267 +2419,22 @@
         <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>4</v>
-      </c>
-      <c r="J15" s="4">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>4</v>
-      </c>
-      <c r="I18" s="4">
-        <v>4</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3</v>
-      </c>
-      <c r="K18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>3</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/study/auswertung/Vergleiche.xlsx
+++ b/study/auswertung/Vergleiche.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Firmengrösse" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Land" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>&gt;= 2000</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Karrierenschritte</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>andere Länder</t>
   </si>
 </sst>
 </file>
@@ -143,8 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,6 +1019,21 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unternehmen &lt; 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -1514,6 +1544,554 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="91723648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Schweiz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Arbeitnehmer</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Land!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Land!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Arbeitgeber</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Land!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Land!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="92470272"/>
+        <c:axId val="92621824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92470272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92621824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92621824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92470272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deutschland</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Arbeitnehmer</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Land!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Land!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Arbeitgeber</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Land!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Land!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="110659456"/>
+        <c:axId val="110660992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110659456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110660992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110660992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110659456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1629,13 +2207,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1679,6 +2257,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1974,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1986,445 +2629,445 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <v>4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>9</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>4</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
         <v>4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>3</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>5</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
         <v>8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="6">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <v>3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>9</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>5</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="6">
         <v>0</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2444,13 +3087,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/study/auswertung/Vergleiche.xlsx
+++ b/study/auswertung/Vergleiche.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Firmengrösse" sheetId="1" r:id="rId1"/>
     <sheet name="Land" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Wirtschaftssektoren" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>&gt;= 2000</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>andere Länder</t>
+  </si>
+  <si>
+    <t>Industrie</t>
+  </si>
+  <si>
+    <t>Dienstleistung</t>
   </si>
 </sst>
 </file>
@@ -2092,6 +2098,554 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="110659456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Industrie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Arbeitnehmer</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektoren!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektoren!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Arbeitgeber</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektoren!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektoren!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="121544704"/>
+        <c:axId val="121546240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="121544704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121546240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121546240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121544704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dienstleistung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Arbeitnehmer</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektoren!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektoren!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Arbeitgeber</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektoren!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektoren!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="126268928"/>
+        <c:axId val="131231744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126268928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131231744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131231744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126268928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,15 +2854,80 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3089,8 +3708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3368,12 +3987,238 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/study/auswertung/Vergleiche.xlsx
+++ b/study/auswertung/Vergleiche.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Firmengrösse" sheetId="1" r:id="rId1"/>
     <sheet name="Land" sheetId="2" r:id="rId2"/>
     <sheet name="Wirtschaftssektoren" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -3990,7 +3991,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M8" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4221,4 +4222,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/study/auswertung/Vergleiche.xlsx
+++ b/study/auswertung/Vergleiche.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Firmengrösse" sheetId="1" r:id="rId1"/>
     <sheet name="Land" sheetId="2" r:id="rId2"/>
     <sheet name="Wirtschaftssektoren" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Popularität" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>&gt;= 2000</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>Dienstleistung</t>
+  </si>
+  <si>
+    <t>Auslandeinsatz</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Weiterbildung</t>
+  </si>
+  <si>
+    <t>flexible Arbeitszeit</t>
+  </si>
+  <si>
+    <t>Popularität in %</t>
   </si>
 </sst>
 </file>
@@ -159,23 +174,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,7 +225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -418,25 +433,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="102546048"/>
-        <c:axId val="110981504"/>
+        <c:axId val="108450944"/>
+        <c:axId val="108818432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102546048"/>
+        <c:axId val="108450944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110981504"/>
+        <c:crossAx val="108818432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110981504"/>
+        <c:axId val="108818432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +459,280 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102546048"/>
+        <c:crossAx val="108450944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Popularität in %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Arbeitnehmer</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Popularität!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Popularität!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>72.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.212121212121211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.575757575757578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.969696969696969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.606060606060609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.969696969696969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.878787878787875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.818181818181813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Arbeitgeber</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Popularität!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Popularität!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.941176470588239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.176470588235297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.235294117647072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="48606208"/>
+        <c:axId val="48661632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48606208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48661632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48661632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48606208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -488,7 +776,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -697,25 +984,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="109817216"/>
-        <c:axId val="109892736"/>
+        <c:axId val="97479296"/>
+        <c:axId val="103485824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109817216"/>
+        <c:axId val="97479296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109892736"/>
+        <c:crossAx val="103485824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109892736"/>
+        <c:axId val="103485824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,20 +1010,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109817216"/>
+        <c:crossAx val="97479296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -767,7 +1053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -976,25 +1261,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="120345728"/>
-        <c:axId val="120347264"/>
+        <c:axId val="103507456"/>
+        <c:axId val="103508992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120345728"/>
+        <c:axId val="103507456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120347264"/>
+        <c:crossAx val="103508992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120347264"/>
+        <c:axId val="103508992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,20 +1287,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120345728"/>
+        <c:crossAx val="103507456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1041,7 +1325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1250,25 +1533,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="93112192"/>
-        <c:axId val="93113728"/>
+        <c:axId val="103526784"/>
+        <c:axId val="103528320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93112192"/>
+        <c:axId val="103526784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93113728"/>
+        <c:crossAx val="103528320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93113728"/>
+        <c:axId val="103528320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,20 +1559,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93112192"/>
+        <c:crossAx val="103526784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1315,7 +1597,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1524,25 +1805,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="91723648"/>
-        <c:axId val="93067136"/>
+        <c:axId val="103554048"/>
+        <c:axId val="103568128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91723648"/>
+        <c:axId val="103554048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93067136"/>
+        <c:crossAx val="103568128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93067136"/>
+        <c:axId val="103568128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,20 +1831,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91723648"/>
+        <c:crossAx val="103554048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1589,7 +1869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1798,25 +2077,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="92470272"/>
-        <c:axId val="92621824"/>
+        <c:axId val="103602432"/>
+        <c:axId val="103608320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92470272"/>
+        <c:axId val="103602432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92621824"/>
+        <c:crossAx val="103608320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92621824"/>
+        <c:axId val="103608320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,20 +2103,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92470272"/>
+        <c:crossAx val="103602432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1863,7 +2141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2072,25 +2349,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="110659456"/>
-        <c:axId val="110660992"/>
+        <c:axId val="103638144"/>
+        <c:axId val="103639680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110659456"/>
+        <c:axId val="103638144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110660992"/>
+        <c:crossAx val="103639680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110660992"/>
+        <c:axId val="103639680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,20 +2375,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110659456"/>
+        <c:crossAx val="103638144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2346,25 +2622,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="121544704"/>
-        <c:axId val="121546240"/>
+        <c:axId val="111268224"/>
+        <c:axId val="111269760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121544704"/>
+        <c:axId val="111268224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121546240"/>
+        <c:crossAx val="111269760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121546240"/>
+        <c:axId val="111269760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2648,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121544704"/>
+        <c:crossAx val="111268224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2385,7 +2661,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2620,25 +2896,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="126268928"/>
-        <c:axId val="131231744"/>
+        <c:axId val="69360640"/>
+        <c:axId val="69366528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126268928"/>
+        <c:axId val="69360640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131231744"/>
+        <c:crossAx val="69366528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131231744"/>
+        <c:axId val="69366528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2922,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126268928"/>
+        <c:crossAx val="69360640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2659,7 +2935,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2942,6 +3218,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3249,445 +3560,445 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>8</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>4</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>4</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3723,14 +4034,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" t="s">
         <v>19</v>
@@ -3990,7 +4301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
@@ -4001,14 +4312,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -4226,12 +4537,162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>72.72727272727272</v>
+      </c>
+      <c r="C2" s="8">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="C3" s="8">
+        <v>52.941176470588239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="C4" s="8">
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8">
+        <v>21.212121212121211</v>
+      </c>
+      <c r="C5" s="8">
+        <v>41.176470588235297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>57.575757575757578</v>
+      </c>
+      <c r="C6" s="8">
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8">
+        <v>96.969696969696969</v>
+      </c>
+      <c r="C7" s="8">
+        <v>88.235294117647072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>54.545454545454547</v>
+      </c>
+      <c r="C8" s="8">
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>60.606060606060609</v>
+      </c>
+      <c r="C9" s="8">
+        <v>17.647058823529413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8">
+        <v>96.969696969696969</v>
+      </c>
+      <c r="C10" s="8">
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8">
+        <v>72.72727272727272</v>
+      </c>
+      <c r="C11" s="8">
+        <v>47.058823529411768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
+        <v>87.878787878787875</v>
+      </c>
+      <c r="C12" s="8">
+        <v>29.411764705882355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>81.818181818181813</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/study/auswertung/Vergleiche.xlsx
+++ b/study/auswertung/Vergleiche.xlsx
@@ -4540,7 +4540,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
